--- a/10450_0145.xlsx
+++ b/10450_0145.xlsx
@@ -7242,381 +7242,6 @@
       </nvPicPr>
       <blipFill>
         <a:blip cstate="print" r:embed="rId285"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>742</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="286" name="Image 286" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId286"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>742</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="287" name="Image 287" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId287"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>9</col>
-      <colOff>0</colOff>
-      <row>742</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="288" name="Image 288" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId288"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>13</col>
-      <colOff>0</colOff>
-      <row>742</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="289" name="Image 289" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId289"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>17</col>
-      <colOff>0</colOff>
-      <row>742</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="290" name="Image 290" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId290"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>755</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="291" name="Image 291" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId291"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>755</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="292" name="Image 292" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId292"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>9</col>
-      <colOff>0</colOff>
-      <row>755</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="293" name="Image 293" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId293"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>13</col>
-      <colOff>0</colOff>
-      <row>755</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="294" name="Image 294" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId294"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>17</col>
-      <colOff>0</colOff>
-      <row>755</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="295" name="Image 295" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId295"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>768</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="296" name="Image 296" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId296"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>768</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="297" name="Image 297" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId297"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>9</col>
-      <colOff>0</colOff>
-      <row>768</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="298" name="Image 298" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId298"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>13</col>
-      <colOff>0</colOff>
-      <row>768</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="299" name="Image 299" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId299"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>17</col>
-      <colOff>0</colOff>
-      <row>768</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="300" name="Image 300" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId300"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -7919,7 +7544,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I61"/>
+  <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9267,14 +8892,14 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>104.3535783_0.8032453_10450_0145_31</t>
+          <t>104.4812491_0.8385833_10450_0145_31</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>104.3535783</v>
+        <v>104.4812491</v>
       </c>
       <c r="C32" t="n">
-        <v>0.8032453000000001</v>
+        <v>0.8385833</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -9283,41 +8908,41 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>cuts/104.3535783,0.8032453_10450_0145_RGB-composite.jpeg</t>
+          <t>cuts/104.4812491,0.8385833_10450_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>cuts/104.3535783,0.8032453_10450_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/104.4812491,0.8385833_10450_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>cuts/104.3535783,0.8032453_10450_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/104.4812491,0.8385833_10450_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>cuts/104.3535783,0.8032453_10450_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.4812491,0.8385833_10450_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>cuts/104.3535783,0.8032453_10450_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.4812491,0.8385833_10450_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>104.4812491_0.8385833_10450_0145_32</t>
+          <t>104.1915652_0.8582291_10450_0145_32</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>104.4812491</v>
+        <v>104.1915652</v>
       </c>
       <c r="C33" t="n">
-        <v>0.8385833</v>
+        <v>0.8582291</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -9326,41 +8951,41 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>cuts/104.4812491,0.8385833_10450_0145_RGB-composite.jpeg</t>
+          <t>cuts/104.1915652,0.8582291_10450_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>cuts/104.4812491,0.8385833_10450_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/104.1915652,0.8582291_10450_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>cuts/104.4812491,0.8385833_10450_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/104.1915652,0.8582291_10450_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>cuts/104.4812491,0.8385833_10450_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.1915652,0.8582291_10450_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>cuts/104.4812491,0.8385833_10450_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.1915652,0.8582291_10450_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>104.1915652_0.8582291_10450_0145_33</t>
+          <t>104.1885298_1.1142287_10450_0145_33</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>104.1915652</v>
+        <v>104.1885298</v>
       </c>
       <c r="C34" t="n">
-        <v>0.8582291</v>
+        <v>1.1142287</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -9369,41 +8994,41 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>cuts/104.1915652,0.8582291_10450_0145_RGB-composite.jpeg</t>
+          <t>cuts/104.1885298,1.1142287_10450_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>cuts/104.1915652,0.8582291_10450_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/104.1885298,1.1142287_10450_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>cuts/104.1915652,0.8582291_10450_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/104.1885298,1.1142287_10450_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>cuts/104.1915652,0.8582291_10450_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.1885298,1.1142287_10450_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>cuts/104.1915652,0.8582291_10450_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.1885298,1.1142287_10450_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>104.1885298_1.1142287_10450_0145_34</t>
+          <t>104.1504793_1.3987231_10450_0145_34</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>104.1885298</v>
+        <v>104.1504793</v>
       </c>
       <c r="C35" t="n">
-        <v>1.1142287</v>
+        <v>1.3987231</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -9412,41 +9037,41 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>cuts/104.1885298,1.1142287_10450_0145_RGB-composite.jpeg</t>
+          <t>cuts/104.1504793,1.3987231_10450_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>cuts/104.1885298,1.1142287_10450_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/104.1504793,1.3987231_10450_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>cuts/104.1885298,1.1142287_10450_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/104.1504793,1.3987231_10450_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>cuts/104.1885298,1.1142287_10450_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.1504793,1.3987231_10450_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>cuts/104.1885298,1.1142287_10450_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.1504793,1.3987231_10450_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>104.1504793_1.3987231_10450_0145_35</t>
+          <t>104.2034462_1.7720640_10450_0145_35</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>104.1504793</v>
+        <v>104.2034462</v>
       </c>
       <c r="C36" t="n">
-        <v>1.3987231</v>
+        <v>1.772064</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -9455,41 +9080,41 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>cuts/104.1504793,1.3987231_10450_0145_RGB-composite.jpeg</t>
+          <t>cuts/104.2034462,1.7720640_10450_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>cuts/104.1504793,1.3987231_10450_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/104.2034462,1.7720640_10450_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>cuts/104.1504793,1.3987231_10450_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/104.2034462,1.7720640_10450_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>cuts/104.1504793,1.3987231_10450_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.2034462,1.7720640_10450_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>cuts/104.1504793,1.3987231_10450_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.2034462,1.7720640_10450_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>104.2034462_1.7720640_10450_0145_36</t>
+          <t>104.2295875_2.0857339_10450_0145_36</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>104.2034462</v>
+        <v>104.2295875</v>
       </c>
       <c r="C37" t="n">
-        <v>1.772064</v>
+        <v>2.0857339</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -9498,41 +9123,41 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>cuts/104.2034462,1.7720640_10450_0145_RGB-composite.jpeg</t>
+          <t>cuts/104.2295875,2.0857339_10450_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>cuts/104.2034462,1.7720640_10450_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/104.2295875,2.0857339_10450_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>cuts/104.2034462,1.7720640_10450_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/104.2295875,2.0857339_10450_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>cuts/104.2034462,1.7720640_10450_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.2295875,2.0857339_10450_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>cuts/104.2034462,1.7720640_10450_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.2295875,2.0857339_10450_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>104.2295875_2.0857339_10450_0145_37</t>
+          <t>104.0218138_2.0010329_10450_0145_37</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>104.2295875</v>
+        <v>104.0218138</v>
       </c>
       <c r="C38" t="n">
-        <v>2.0857339</v>
+        <v>2.0010329</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -9541,41 +9166,41 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>cuts/104.2295875,2.0857339_10450_0145_RGB-composite.jpeg</t>
+          <t>cuts/104.0218138,2.0010329_10450_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>cuts/104.2295875,2.0857339_10450_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/104.0218138,2.0010329_10450_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>cuts/104.2295875,2.0857339_10450_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/104.0218138,2.0010329_10450_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>cuts/104.2295875,2.0857339_10450_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.0218138,2.0010329_10450_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>cuts/104.2295875,2.0857339_10450_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.0218138,2.0010329_10450_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>104.0218138_2.0010329_10450_0145_38</t>
+          <t>103.9745529_0.8565224_10450_0145_38</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>104.0218138</v>
+        <v>103.9745529</v>
       </c>
       <c r="C39" t="n">
-        <v>2.0010329</v>
+        <v>0.8565224</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -9584,41 +9209,41 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>cuts/104.0218138,2.0010329_10450_0145_RGB-composite.jpeg</t>
+          <t>cuts/103.9745529,0.8565224_10450_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>cuts/104.0218138,2.0010329_10450_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/103.9745529,0.8565224_10450_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>cuts/104.0218138,2.0010329_10450_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/103.9745529,0.8565224_10450_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>cuts/104.0218138,2.0010329_10450_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/103.9745529,0.8565224_10450_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>cuts/104.0218138,2.0010329_10450_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/103.9745529,0.8565224_10450_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>103.9745529_0.8565224_10450_0145_39</t>
+          <t>105.0081044_1.5616931_10450_0145_39</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>103.9745529</v>
+        <v>105.0081044</v>
       </c>
       <c r="C40" t="n">
-        <v>0.8565224</v>
+        <v>1.5616931</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -9627,41 +9252,41 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>cuts/103.9745529,0.8565224_10450_0145_RGB-composite.jpeg</t>
+          <t>cuts/105.0081044,1.5616931_10450_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>cuts/103.9745529,0.8565224_10450_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/105.0081044,1.5616931_10450_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>cuts/103.9745529,0.8565224_10450_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/105.0081044,1.5616931_10450_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>cuts/103.9745529,0.8565224_10450_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/105.0081044,1.5616931_10450_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>cuts/103.9745529,0.8565224_10450_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/105.0081044,1.5616931_10450_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>105.0081044_1.5616931_10450_0145_40</t>
+          <t>104.9910173_1.1888635_10450_0145_40</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>105.0081044</v>
+        <v>104.9910173</v>
       </c>
       <c r="C41" t="n">
-        <v>1.5616931</v>
+        <v>1.1888635</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -9670,41 +9295,41 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>cuts/105.0081044,1.5616931_10450_0145_RGB-composite.jpeg</t>
+          <t>cuts/104.9910173,1.1888635_10450_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>cuts/105.0081044,1.5616931_10450_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/104.9910173,1.1888635_10450_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>cuts/105.0081044,1.5616931_10450_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/104.9910173,1.1888635_10450_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>cuts/105.0081044,1.5616931_10450_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.9910173,1.1888635_10450_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>cuts/105.0081044,1.5616931_10450_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.9910173,1.1888635_10450_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>104.9910173_1.1888635_10450_0145_41</t>
+          <t>104.8345346_1.5230587_10450_0145_41</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>104.9910173</v>
+        <v>104.8345346</v>
       </c>
       <c r="C42" t="n">
-        <v>1.1888635</v>
+        <v>1.5230587</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -9713,41 +9338,41 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>cuts/104.9910173,1.1888635_10450_0145_RGB-composite.jpeg</t>
+          <t>cuts/104.8345346,1.5230587_10450_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>cuts/104.9910173,1.1888635_10450_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/104.8345346,1.5230587_10450_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>cuts/104.9910173,1.1888635_10450_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/104.8345346,1.5230587_10450_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>cuts/104.9910173,1.1888635_10450_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.8345346,1.5230587_10450_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>cuts/104.9910173,1.1888635_10450_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.8345346,1.5230587_10450_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>104.8345346_1.5230587_10450_0145_42</t>
+          <t>104.9237340_1.5302104_10450_0145_42</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>104.8345346</v>
+        <v>104.923734</v>
       </c>
       <c r="C43" t="n">
-        <v>1.5230587</v>
+        <v>1.5302104</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -9756,41 +9381,41 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>cuts/104.8345346,1.5230587_10450_0145_RGB-composite.jpeg</t>
+          <t>cuts/104.9237340,1.5302104_10450_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>cuts/104.8345346,1.5230587_10450_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/104.9237340,1.5302104_10450_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>cuts/104.8345346,1.5230587_10450_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/104.9237340,1.5302104_10450_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>cuts/104.8345346,1.5230587_10450_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.9237340,1.5302104_10450_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>cuts/104.8345346,1.5230587_10450_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.9237340,1.5302104_10450_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>104.9237340_1.5302104_10450_0145_43</t>
+          <t>104.8010448_1.6888967_10450_0145_43</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>104.923734</v>
+        <v>104.8010448</v>
       </c>
       <c r="C44" t="n">
-        <v>1.5302104</v>
+        <v>1.6888967</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -9799,41 +9424,41 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>cuts/104.9237340,1.5302104_10450_0145_RGB-composite.jpeg</t>
+          <t>cuts/104.8010448,1.6888967_10450_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>cuts/104.9237340,1.5302104_10450_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/104.8010448,1.6888967_10450_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>cuts/104.9237340,1.5302104_10450_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/104.8010448,1.6888967_10450_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>cuts/104.9237340,1.5302104_10450_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.8010448,1.6888967_10450_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>cuts/104.9237340,1.5302104_10450_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.8010448,1.6888967_10450_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>104.8010448_1.6888967_10450_0145_44</t>
+          <t>104.9501402_1.0110386_10450_0145_44</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>104.8010448</v>
+        <v>104.9501402</v>
       </c>
       <c r="C45" t="n">
-        <v>1.6888967</v>
+        <v>1.0110386</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -9842,41 +9467,41 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>cuts/104.8010448,1.6888967_10450_0145_RGB-composite.jpeg</t>
+          <t>cuts/104.9501402,1.0110386_10450_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>cuts/104.8010448,1.6888967_10450_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/104.9501402,1.0110386_10450_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>cuts/104.8010448,1.6888967_10450_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/104.9501402,1.0110386_10450_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>cuts/104.8010448,1.6888967_10450_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.9501402,1.0110386_10450_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>cuts/104.8010448,1.6888967_10450_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.9501402,1.0110386_10450_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>104.9501402_1.0110386_10450_0145_45</t>
+          <t>104.7592917_1.0889019_10450_0145_45</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>104.9501402</v>
+        <v>104.7592917</v>
       </c>
       <c r="C46" t="n">
-        <v>1.0110386</v>
+        <v>1.0889019</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -9885,41 +9510,41 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>cuts/104.9501402,1.0110386_10450_0145_RGB-composite.jpeg</t>
+          <t>cuts/104.7592917,1.0889019_10450_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>cuts/104.9501402,1.0110386_10450_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/104.7592917,1.0889019_10450_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>cuts/104.9501402,1.0110386_10450_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/104.7592917,1.0889019_10450_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>cuts/104.9501402,1.0110386_10450_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.7592917,1.0889019_10450_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>cuts/104.9501402,1.0110386_10450_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.7592917,1.0889019_10450_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>104.7592917_1.0889019_10450_0145_46</t>
+          <t>104.7788009_1.1385662_10450_0145_46</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>104.7592917</v>
+        <v>104.7788009</v>
       </c>
       <c r="C47" t="n">
-        <v>1.0889019</v>
+        <v>1.1385662</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -9928,41 +9553,41 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>cuts/104.7592917,1.0889019_10450_0145_RGB-composite.jpeg</t>
+          <t>cuts/104.7788009,1.1385662_10450_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>cuts/104.7592917,1.0889019_10450_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/104.7788009,1.1385662_10450_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>cuts/104.7592917,1.0889019_10450_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/104.7788009,1.1385662_10450_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>cuts/104.7592917,1.0889019_10450_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.7788009,1.1385662_10450_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>cuts/104.7592917,1.0889019_10450_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.7788009,1.1385662_10450_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>104.7788009_1.1385662_10450_0145_47</t>
+          <t>104.6986475_1.4562413_10450_0145_47</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>104.7788009</v>
+        <v>104.6986475</v>
       </c>
       <c r="C48" t="n">
-        <v>1.1385662</v>
+        <v>1.4562413</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -9971,41 +9596,41 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>cuts/104.7788009,1.1385662_10450_0145_RGB-composite.jpeg</t>
+          <t>cuts/104.6986475,1.4562413_10450_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>cuts/104.7788009,1.1385662_10450_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/104.6986475,1.4562413_10450_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>cuts/104.7788009,1.1385662_10450_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/104.6986475,1.4562413_10450_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>cuts/104.7788009,1.1385662_10450_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.6986475,1.4562413_10450_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>cuts/104.7788009,1.1385662_10450_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.6986475,1.4562413_10450_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>104.6986475_1.4562413_10450_0145_48</t>
+          <t>104.3500024_1.9460784_10450_0145_48</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>104.6986475</v>
+        <v>104.3500024</v>
       </c>
       <c r="C49" t="n">
-        <v>1.4562413</v>
+        <v>1.9460784</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -10014,41 +9639,41 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>cuts/104.6986475,1.4562413_10450_0145_RGB-composite.jpeg</t>
+          <t>cuts/104.3500024,1.9460784_10450_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>cuts/104.6986475,1.4562413_10450_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/104.3500024,1.9460784_10450_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>cuts/104.6986475,1.4562413_10450_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/104.3500024,1.9460784_10450_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>cuts/104.6986475,1.4562413_10450_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.3500024,1.9460784_10450_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>cuts/104.6986475,1.4562413_10450_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.3500024,1.9460784_10450_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>104.3500024_1.9460784_10450_0145_49</t>
+          <t>104.2124645_1.6608985_10450_0145_49</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>104.3500024</v>
+        <v>104.2124645</v>
       </c>
       <c r="C50" t="n">
-        <v>1.9460784</v>
+        <v>1.6608985</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -10057,41 +9682,41 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>cuts/104.3500024,1.9460784_10450_0145_RGB-composite.jpeg</t>
+          <t>cuts/104.2124645,1.6608985_10450_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>cuts/104.3500024,1.9460784_10450_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/104.2124645,1.6608985_10450_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>cuts/104.3500024,1.9460784_10450_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/104.2124645,1.6608985_10450_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>cuts/104.3500024,1.9460784_10450_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.2124645,1.6608985_10450_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>cuts/104.3500024,1.9460784_10450_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.2124645,1.6608985_10450_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>104.1667153_2.0932255_10450_0145_50</t>
+          <t>104.2784910_1.6692392_10450_0145_50</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>104.1667153</v>
+        <v>104.278491</v>
       </c>
       <c r="C51" t="n">
-        <v>2.0932255</v>
+        <v>1.6692392</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -10100,41 +9725,41 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>cuts/104.1667153,2.0932255_10450_0145_RGB-composite.jpeg</t>
+          <t>cuts/104.2784910,1.6692392_10450_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>cuts/104.1667153,2.0932255_10450_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/104.2784910,1.6692392_10450_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>cuts/104.1667153,2.0932255_10450_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/104.2784910,1.6692392_10450_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>cuts/104.1667153,2.0932255_10450_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.2784910,1.6692392_10450_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>cuts/104.1667153,2.0932255_10450_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.2784910,1.6692392_10450_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>104.2124645_1.6608985_10450_0145_51</t>
+          <t>104.1470032_1.2387225_10450_0145_51</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>104.2124645</v>
+        <v>104.1470032</v>
       </c>
       <c r="C52" t="n">
-        <v>1.6608985</v>
+        <v>1.2387225</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -10143,41 +9768,41 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>cuts/104.2124645,1.6608985_10450_0145_RGB-composite.jpeg</t>
+          <t>cuts/104.1470032,1.2387225_10450_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>cuts/104.2124645,1.6608985_10450_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/104.1470032,1.2387225_10450_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>cuts/104.2124645,1.6608985_10450_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/104.1470032,1.2387225_10450_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>cuts/104.2124645,1.6608985_10450_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.1470032,1.2387225_10450_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>cuts/104.2124645,1.6608985_10450_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.1470032,1.2387225_10450_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>104.2784910_1.6692392_10450_0145_52</t>
+          <t>104.0075019_1.0991965_10450_0145_52</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>104.278491</v>
+        <v>104.0075019</v>
       </c>
       <c r="C53" t="n">
-        <v>1.6692392</v>
+        <v>1.0991965</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -10186,41 +9811,41 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>cuts/104.2784910,1.6692392_10450_0145_RGB-composite.jpeg</t>
+          <t>cuts/104.0075019,1.0991965_10450_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>cuts/104.2784910,1.6692392_10450_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/104.0075019,1.0991965_10450_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>cuts/104.2784910,1.6692392_10450_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/104.0075019,1.0991965_10450_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>cuts/104.2784910,1.6692392_10450_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.0075019,1.0991965_10450_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>cuts/104.2784910,1.6692392_10450_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.0075019,1.0991965_10450_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>104.1470032_1.2387225_10450_0145_53</t>
+          <t>104.1965305_1.1192297_10450_0145_53</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>104.1470032</v>
+        <v>104.1965305</v>
       </c>
       <c r="C54" t="n">
-        <v>1.2387225</v>
+        <v>1.1192297</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -10229,41 +9854,41 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>cuts/104.1470032,1.2387225_10450_0145_RGB-composite.jpeg</t>
+          <t>cuts/104.1965305,1.1192297_10450_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>cuts/104.1470032,1.2387225_10450_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/104.1965305,1.1192297_10450_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>cuts/104.1470032,1.2387225_10450_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/104.1965305,1.1192297_10450_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>cuts/104.1470032,1.2387225_10450_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.1965305,1.1192297_10450_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>cuts/104.1470032,1.2387225_10450_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.1965305,1.1192297_10450_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>104.0075019_1.0991965_10450_0145_54</t>
+          <t>103.9944671_1.2456936_10450_0145_54</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>104.0075019</v>
+        <v>103.9944671</v>
       </c>
       <c r="C55" t="n">
-        <v>1.0991965</v>
+        <v>1.2456936</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -10272,41 +9897,41 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>cuts/104.0075019,1.0991965_10450_0145_RGB-composite.jpeg</t>
+          <t>cuts/103.9944671,1.2456936_10450_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>cuts/104.0075019,1.0991965_10450_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/103.9944671,1.2456936_10450_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>cuts/104.0075019,1.0991965_10450_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/103.9944671,1.2456936_10450_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>cuts/104.0075019,1.0991965_10450_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/103.9944671,1.2456936_10450_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>cuts/104.0075019,1.0991965_10450_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/103.9944671,1.2456936_10450_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>104.1965305_1.1192297_10450_0145_55</t>
+          <t>104.0943027_1.3608804_10450_0145_55</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>104.1965305</v>
+        <v>104.0943027</v>
       </c>
       <c r="C56" t="n">
-        <v>1.1192297</v>
+        <v>1.3608804</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -10315,41 +9940,41 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>cuts/104.1965305,1.1192297_10450_0145_RGB-composite.jpeg</t>
+          <t>cuts/104.0943027,1.3608804_10450_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>cuts/104.1965305,1.1192297_10450_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/104.0943027,1.3608804_10450_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>cuts/104.1965305,1.1192297_10450_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/104.0943027,1.3608804_10450_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>cuts/104.1965305,1.1192297_10450_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.0943027,1.3608804_10450_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>cuts/104.1965305,1.1192297_10450_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.0943027,1.3608804_10450_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>103.9944671_1.2456936_10450_0145_56</t>
+          <t>104.1032257_1.8147153_10450_0145_56</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>103.9944671</v>
+        <v>104.1032257</v>
       </c>
       <c r="C57" t="n">
-        <v>1.2456936</v>
+        <v>1.8147153</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -10358,41 +9983,41 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>cuts/103.9944671,1.2456936_10450_0145_RGB-composite.jpeg</t>
+          <t>cuts/104.1032257,1.8147153_10450_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>cuts/103.9944671,1.2456936_10450_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/104.1032257,1.8147153_10450_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>cuts/103.9944671,1.2456936_10450_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/104.1032257,1.8147153_10450_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>cuts/103.9944671,1.2456936_10450_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.1032257,1.8147153_10450_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>cuts/103.9944671,1.2456936_10450_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.1032257,1.8147153_10450_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>104.0943027_1.3608804_10450_0145_57</t>
+          <t>104.4409144_0.8107493_10450_0145_57</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>104.0943027</v>
+        <v>104.4409144</v>
       </c>
       <c r="C58" t="n">
-        <v>1.3608804</v>
+        <v>0.8107493</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -10401,156 +10026,27 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>cuts/104.0943027,1.3608804_10450_0145_RGB-composite.jpeg</t>
+          <t>cuts/104.4409144,0.8107493_10450_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>cuts/104.0943027,1.3608804_10450_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/104.4409144,0.8107493_10450_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>cuts/104.0943027,1.3608804_10450_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/104.4409144,0.8107493_10450_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>cuts/104.0943027,1.3608804_10450_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.4409144,0.8107493_10450_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>cuts/104.0943027,1.3608804_10450_0145_Azul-3.5micras.jpeg</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>104.1032257_1.8147153_10450_0145_58</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>104.1032257</v>
-      </c>
-      <c r="C59" t="n">
-        <v>1.8147153</v>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>cuts/104.1032257,1.8147153_10450_0145_RGB-composite.jpeg</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>cuts/104.1032257,1.8147153_10450_0145_Rojo-8micras.jpeg</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>cuts/104.1032257,1.8147153_10450_0145_I3-5.8micras.jpeg</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>cuts/104.1032257,1.8147153_10450_0145_Verde-4.6micras.jpeg</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>cuts/104.1032257,1.8147153_10450_0145_Azul-3.5micras.jpeg</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>104.4409144_0.8107493_10450_0145_59</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>104.4409144</v>
-      </c>
-      <c r="C60" t="n">
-        <v>0.8107493</v>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>cuts/104.4409144,0.8107493_10450_0145_RGB-composite.jpeg</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>cuts/104.4409144,0.8107493_10450_0145_Rojo-8micras.jpeg</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>cuts/104.4409144,0.8107493_10450_0145_I3-5.8micras.jpeg</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>cuts/104.4409144,0.8107493_10450_0145_Verde-4.6micras.jpeg</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
           <t>cuts/104.4409144,0.8107493_10450_0145_Azul-3.5micras.jpeg</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>103.9550710_1.4688512_10450_0145_60</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>103.955071</v>
-      </c>
-      <c r="C61" t="n">
-        <v>1.4688512</v>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>cuts/103.9550710,1.4688512_10450_0145_RGB-composite.jpeg</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>cuts/103.9550710,1.4688512_10450_0145_Rojo-8micras.jpeg</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>cuts/103.9550710,1.4688512_10450_0145_I3-5.8micras.jpeg</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>cuts/103.9550710,1.4688512_10450_0145_Verde-4.6micras.jpeg</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>cuts/103.9550710,1.4688512_10450_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
@@ -10565,7 +10061,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R769"/>
+  <dimension ref="A1:R730"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10830,210 +10326,189 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>104.3535783_0.8032453_10450_0145_31</t>
+          <t>104.4812491_0.8385833_10450_0145_31</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>104.4812491_0.8385833_10450_0145_32</t>
+          <t>104.1915652_0.8582291_10450_0145_32</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>104.1915652_0.8582291_10450_0145_33</t>
+          <t>104.1885298_1.1142287_10450_0145_33</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>104.1885298_1.1142287_10450_0145_34</t>
+          <t>104.1504793_1.3987231_10450_0145_34</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>104.1504793_1.3987231_10450_0145_35</t>
+          <t>104.2034462_1.7720640_10450_0145_35</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>104.2034462_1.7720640_10450_0145_36</t>
+          <t>104.2295875_2.0857339_10450_0145_36</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>104.2295875_2.0857339_10450_0145_37</t>
+          <t>104.0218138_2.0010329_10450_0145_37</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>104.0218138_2.0010329_10450_0145_38</t>
+          <t>103.9745529_0.8565224_10450_0145_38</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>103.9745529_0.8565224_10450_0145_39</t>
+          <t>105.0081044_1.5616931_10450_0145_39</t>
         </is>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>105.0081044_1.5616931_10450_0145_40</t>
+          <t>104.9910173_1.1888635_10450_0145_40</t>
         </is>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>104.9910173_1.1888635_10450_0145_41</t>
+          <t>104.8345346_1.5230587_10450_0145_41</t>
         </is>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>104.8345346_1.5230587_10450_0145_42</t>
+          <t>104.9237340_1.5302104_10450_0145_42</t>
         </is>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>104.9237340_1.5302104_10450_0145_43</t>
+          <t>104.8010448_1.6888967_10450_0145_43</t>
         </is>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>104.8010448_1.6888967_10450_0145_44</t>
+          <t>104.9501402_1.0110386_10450_0145_44</t>
         </is>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>104.9501402_1.0110386_10450_0145_45</t>
+          <t>104.7592917_1.0889019_10450_0145_45</t>
         </is>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>104.7592917_1.0889019_10450_0145_46</t>
+          <t>104.7788009_1.1385662_10450_0145_46</t>
         </is>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>104.7788009_1.1385662_10450_0145_47</t>
+          <t>104.6986475_1.4562413_10450_0145_47</t>
         </is>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>104.6986475_1.4562413_10450_0145_48</t>
+          <t>104.3500024_1.9460784_10450_0145_48</t>
         </is>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>104.3500024_1.9460784_10450_0145_49</t>
+          <t>104.2124645_1.6608985_10450_0145_49</t>
         </is>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>104.1667153_2.0932255_10450_0145_50</t>
+          <t>104.2784910_1.6692392_10450_0145_50</t>
         </is>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>104.2124645_1.6608985_10450_0145_51</t>
+          <t>104.1470032_1.2387225_10450_0145_51</t>
         </is>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>104.2784910_1.6692392_10450_0145_52</t>
+          <t>104.0075019_1.0991965_10450_0145_52</t>
         </is>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>104.1470032_1.2387225_10450_0145_53</t>
+          <t>104.1965305_1.1192297_10450_0145_53</t>
         </is>
       </c>
     </row>
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>104.0075019_1.0991965_10450_0145_54</t>
+          <t>103.9944671_1.2456936_10450_0145_54</t>
         </is>
       </c>
     </row>
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>104.1965305_1.1192297_10450_0145_55</t>
+          <t>104.0943027_1.3608804_10450_0145_55</t>
         </is>
       </c>
     </row>
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>103.9944671_1.2456936_10450_0145_56</t>
+          <t>104.1032257_1.8147153_10450_0145_56</t>
         </is>
       </c>
     </row>
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>104.0943027_1.3608804_10450_0145_57</t>
-        </is>
-      </c>
-    </row>
-    <row r="743">
-      <c r="A743" t="inlineStr">
-        <is>
-          <t>104.1032257_1.8147153_10450_0145_58</t>
-        </is>
-      </c>
-    </row>
-    <row r="756">
-      <c r="A756" t="inlineStr">
-        <is>
-          <t>104.4409144_0.8107493_10450_0145_59</t>
-        </is>
-      </c>
-    </row>
-    <row r="769">
-      <c r="A769" t="inlineStr">
-        <is>
-          <t>103.9550710_1.4688512_10450_0145_60</t>
+          <t>104.4409144_0.8107493_10450_0145_57</t>
         </is>
       </c>
     </row>

--- a/10450_0145.xlsx
+++ b/10450_0145.xlsx
@@ -7544,7 +7544,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I58"/>
+  <dimension ref="A1:Y58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7598,6 +7598,86 @@
           <t>3.5-micron Filter</t>
         </is>
       </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>I4 Low Pixel Limit</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>I4 High Pixel Limit</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>I2 Low Pixel Limit</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>I2 High Pixel Limit</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>I1 Low Pixel Limit</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>I1 High Pixel Limit</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>I3 Low Pixel Limit</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>I3 High Pixel Limit</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>I4 Contrast</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>I4 Bias</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>I2 Contrast</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>I2 Bias</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>I1 Contrast</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>I1 Bias</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>I3 Contrast</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>I3 Bias</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -7641,6 +7721,54 @@
           <t>cuts/104.8747710,1.9471803_10450_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J2" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="K2" t="n">
+        <v>15.844</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="M2" t="n">
+        <v>6.07593</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="O2" t="n">
+        <v>6.07593</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>40.3411</v>
+      </c>
+      <c r="R2" t="n">
+        <v>4.18605</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.535156</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2.80859</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.434245</v>
+      </c>
+      <c r="V2" t="n">
+        <v>5.45617</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.463542</v>
+      </c>
+      <c r="X2" t="n">
+        <v>5.45455</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.0900783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -7684,6 +7812,54 @@
           <t>cuts/104.0695201,1.9894318_10450_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J3" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="K3" t="n">
+        <v>15.844</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="M3" t="n">
+        <v>6.07593</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="O3" t="n">
+        <v>6.07593</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>40.3411</v>
+      </c>
+      <c r="R3" t="n">
+        <v>4.18605</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.535156</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.80859</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.434245</v>
+      </c>
+      <c r="V3" t="n">
+        <v>5.45617</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.463542</v>
+      </c>
+      <c r="X3" t="n">
+        <v>5.45455</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.0900783</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -7727,6 +7903,54 @@
           <t>cuts/103.9853656,1.3372564_10450_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J4" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="K4" t="n">
+        <v>15.844</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="M4" t="n">
+        <v>6.07593</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="O4" t="n">
+        <v>6.07593</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>40.3411</v>
+      </c>
+      <c r="R4" t="n">
+        <v>4.18605</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.535156</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.80859</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.434245</v>
+      </c>
+      <c r="V4" t="n">
+        <v>5.45617</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.463542</v>
+      </c>
+      <c r="X4" t="n">
+        <v>5.45455</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.0900783</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -7770,6 +7994,54 @@
           <t>cuts/104.0930341,1.3333430_10450_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J5" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="K5" t="n">
+        <v>15.844</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="M5" t="n">
+        <v>6.07593</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="O5" t="n">
+        <v>6.07593</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>40.3411</v>
+      </c>
+      <c r="R5" t="n">
+        <v>4.18605</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.535156</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.80859</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.434245</v>
+      </c>
+      <c r="V5" t="n">
+        <v>5.45617</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.463542</v>
+      </c>
+      <c r="X5" t="n">
+        <v>5.45455</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.0900783</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -7813,6 +8085,54 @@
           <t>cuts/104.3578369,1.5539122_10450_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J6" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="K6" t="n">
+        <v>15.844</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="M6" t="n">
+        <v>6.07593</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="O6" t="n">
+        <v>6.07593</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>40.3411</v>
+      </c>
+      <c r="R6" t="n">
+        <v>4.18605</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.535156</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.80859</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.434245</v>
+      </c>
+      <c r="V6" t="n">
+        <v>5.45617</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.463542</v>
+      </c>
+      <c r="X6" t="n">
+        <v>5.45455</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.0900783</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -7856,6 +8176,54 @@
           <t>cuts/104.6244403,1.6596911_10450_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J7" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="K7" t="n">
+        <v>15.844</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="M7" t="n">
+        <v>6.07593</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="O7" t="n">
+        <v>6.07593</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>40.3411</v>
+      </c>
+      <c r="R7" t="n">
+        <v>4.18605</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.535156</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.80859</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.434245</v>
+      </c>
+      <c r="V7" t="n">
+        <v>5.45617</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.463542</v>
+      </c>
+      <c r="X7" t="n">
+        <v>5.45455</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.0900783</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -7899,6 +8267,54 @@
           <t>cuts/104.3659019,0.9739128_10450_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J8" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="K8" t="n">
+        <v>15.844</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="M8" t="n">
+        <v>6.07593</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="O8" t="n">
+        <v>6.07593</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>40.3411</v>
+      </c>
+      <c r="R8" t="n">
+        <v>4.18605</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.535156</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.80859</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.434245</v>
+      </c>
+      <c r="V8" t="n">
+        <v>5.45617</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.463542</v>
+      </c>
+      <c r="X8" t="n">
+        <v>5.45455</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0.0900783</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7942,6 +8358,54 @@
           <t>cuts/104.2161856,1.1324256_10450_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J9" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="K9" t="n">
+        <v>15.844</v>
+      </c>
+      <c r="L9" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="M9" t="n">
+        <v>6.07593</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="O9" t="n">
+        <v>6.07593</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>40.3411</v>
+      </c>
+      <c r="R9" t="n">
+        <v>4.18605</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.535156</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.80859</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.434245</v>
+      </c>
+      <c r="V9" t="n">
+        <v>5.45617</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.463542</v>
+      </c>
+      <c r="X9" t="n">
+        <v>5.45455</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0.0900783</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7985,6 +8449,54 @@
           <t>cuts/105.0365589,2.0288531_10450_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J10" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="K10" t="n">
+        <v>15.844</v>
+      </c>
+      <c r="L10" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="M10" t="n">
+        <v>6.07593</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="O10" t="n">
+        <v>6.07593</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>40.3411</v>
+      </c>
+      <c r="R10" t="n">
+        <v>4.18605</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.535156</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.80859</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.434245</v>
+      </c>
+      <c r="V10" t="n">
+        <v>5.45617</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.463542</v>
+      </c>
+      <c r="X10" t="n">
+        <v>5.45455</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.0900783</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8028,6 +8540,54 @@
           <t>cuts/104.9765183,1.9998666_10450_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J11" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="K11" t="n">
+        <v>15.844</v>
+      </c>
+      <c r="L11" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="M11" t="n">
+        <v>6.07593</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="O11" t="n">
+        <v>6.07593</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>40.3411</v>
+      </c>
+      <c r="R11" t="n">
+        <v>4.18605</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.535156</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.80859</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.434245</v>
+      </c>
+      <c r="V11" t="n">
+        <v>5.45617</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.463542</v>
+      </c>
+      <c r="X11" t="n">
+        <v>5.45455</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0.0900783</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8071,6 +8631,54 @@
           <t>cuts/104.8948181,2.0712156_10450_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J12" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="K12" t="n">
+        <v>15.844</v>
+      </c>
+      <c r="L12" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="M12" t="n">
+        <v>6.07593</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="O12" t="n">
+        <v>6.07593</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>40.3411</v>
+      </c>
+      <c r="R12" t="n">
+        <v>4.18605</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.535156</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2.80859</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.434245</v>
+      </c>
+      <c r="V12" t="n">
+        <v>5.45617</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.463542</v>
+      </c>
+      <c r="X12" t="n">
+        <v>5.45455</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0.0900783</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8114,6 +8722,54 @@
           <t>cuts/104.8901449,2.0492165_10450_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J13" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="K13" t="n">
+        <v>15.844</v>
+      </c>
+      <c r="L13" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="M13" t="n">
+        <v>6.07593</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="O13" t="n">
+        <v>6.07593</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>40.3411</v>
+      </c>
+      <c r="R13" t="n">
+        <v>4.18605</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.535156</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.80859</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.434245</v>
+      </c>
+      <c r="V13" t="n">
+        <v>5.45617</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0.463542</v>
+      </c>
+      <c r="X13" t="n">
+        <v>5.45455</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0.0900783</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -8157,6 +8813,54 @@
           <t>cuts/104.9016059,0.8520477_10450_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J14" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="K14" t="n">
+        <v>15.844</v>
+      </c>
+      <c r="L14" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="M14" t="n">
+        <v>6.07593</v>
+      </c>
+      <c r="N14" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="O14" t="n">
+        <v>6.07593</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>40.3411</v>
+      </c>
+      <c r="R14" t="n">
+        <v>4.18605</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.535156</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.80859</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.434245</v>
+      </c>
+      <c r="V14" t="n">
+        <v>5.45617</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0.463542</v>
+      </c>
+      <c r="X14" t="n">
+        <v>5.45455</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0.0900783</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -8200,6 +8904,54 @@
           <t>cuts/104.8807827,0.9197180_10450_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J15" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="K15" t="n">
+        <v>15.844</v>
+      </c>
+      <c r="L15" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="M15" t="n">
+        <v>6.07593</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="O15" t="n">
+        <v>6.07593</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>40.3411</v>
+      </c>
+      <c r="R15" t="n">
+        <v>4.18605</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.535156</v>
+      </c>
+      <c r="T15" t="n">
+        <v>2.80859</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.434245</v>
+      </c>
+      <c r="V15" t="n">
+        <v>5.45617</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0.463542</v>
+      </c>
+      <c r="X15" t="n">
+        <v>5.45455</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0.0900783</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -8243,6 +8995,54 @@
           <t>cuts/104.8337783,0.9170588_10450_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J16" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="K16" t="n">
+        <v>15.844</v>
+      </c>
+      <c r="L16" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="M16" t="n">
+        <v>6.07593</v>
+      </c>
+      <c r="N16" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="O16" t="n">
+        <v>6.07593</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>40.3411</v>
+      </c>
+      <c r="R16" t="n">
+        <v>4.18605</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.535156</v>
+      </c>
+      <c r="T16" t="n">
+        <v>2.80859</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.434245</v>
+      </c>
+      <c r="V16" t="n">
+        <v>5.45617</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0.463542</v>
+      </c>
+      <c r="X16" t="n">
+        <v>5.45455</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0.0900783</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -8286,6 +9086,54 @@
           <t>cuts/104.8584394,0.8683883_10450_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J17" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="K17" t="n">
+        <v>15.844</v>
+      </c>
+      <c r="L17" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="M17" t="n">
+        <v>6.07593</v>
+      </c>
+      <c r="N17" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="O17" t="n">
+        <v>6.07593</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>40.3411</v>
+      </c>
+      <c r="R17" t="n">
+        <v>4.18605</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.535156</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2.80859</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.434245</v>
+      </c>
+      <c r="V17" t="n">
+        <v>5.45617</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0.463542</v>
+      </c>
+      <c r="X17" t="n">
+        <v>5.45455</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0.0900783</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -8329,6 +9177,54 @@
           <t>cuts/104.8214547,0.9927273_10450_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J18" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="K18" t="n">
+        <v>15.844</v>
+      </c>
+      <c r="L18" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="M18" t="n">
+        <v>6.07593</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="O18" t="n">
+        <v>6.07593</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>40.3411</v>
+      </c>
+      <c r="R18" t="n">
+        <v>4.18605</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.535156</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2.80859</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0.434245</v>
+      </c>
+      <c r="V18" t="n">
+        <v>5.45617</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0.463542</v>
+      </c>
+      <c r="X18" t="n">
+        <v>5.45455</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0.0900783</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -8372,6 +9268,54 @@
           <t>cuts/104.9369872,1.0902079_10450_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J19" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="K19" t="n">
+        <v>15.844</v>
+      </c>
+      <c r="L19" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="M19" t="n">
+        <v>6.07593</v>
+      </c>
+      <c r="N19" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="O19" t="n">
+        <v>6.07593</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>40.3411</v>
+      </c>
+      <c r="R19" t="n">
+        <v>4.18605</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.535156</v>
+      </c>
+      <c r="T19" t="n">
+        <v>2.80859</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.434245</v>
+      </c>
+      <c r="V19" t="n">
+        <v>5.45617</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0.463542</v>
+      </c>
+      <c r="X19" t="n">
+        <v>5.45455</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0.0900783</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -8415,6 +9359,54 @@
           <t>cuts/104.8347729,2.0068920_10450_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J20" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="K20" t="n">
+        <v>15.844</v>
+      </c>
+      <c r="L20" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="M20" t="n">
+        <v>6.07593</v>
+      </c>
+      <c r="N20" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="O20" t="n">
+        <v>6.07593</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>40.3411</v>
+      </c>
+      <c r="R20" t="n">
+        <v>4.18605</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0.535156</v>
+      </c>
+      <c r="T20" t="n">
+        <v>2.80859</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.434245</v>
+      </c>
+      <c r="V20" t="n">
+        <v>5.45617</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0.463542</v>
+      </c>
+      <c r="X20" t="n">
+        <v>5.45455</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0.0900783</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -8458,6 +9450,54 @@
           <t>cuts/104.6550009,1.9552448_10450_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J21" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="K21" t="n">
+        <v>15.844</v>
+      </c>
+      <c r="L21" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="M21" t="n">
+        <v>6.07593</v>
+      </c>
+      <c r="N21" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="O21" t="n">
+        <v>6.07593</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>40.3411</v>
+      </c>
+      <c r="R21" t="n">
+        <v>4.18605</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0.535156</v>
+      </c>
+      <c r="T21" t="n">
+        <v>2.80859</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0.434245</v>
+      </c>
+      <c r="V21" t="n">
+        <v>5.45617</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0.463542</v>
+      </c>
+      <c r="X21" t="n">
+        <v>5.45455</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0.0900783</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -8501,6 +9541,54 @@
           <t>cuts/104.7263830,2.0560720_10450_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J22" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="K22" t="n">
+        <v>15.844</v>
+      </c>
+      <c r="L22" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="M22" t="n">
+        <v>6.07593</v>
+      </c>
+      <c r="N22" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="O22" t="n">
+        <v>6.07593</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>40.3411</v>
+      </c>
+      <c r="R22" t="n">
+        <v>4.18605</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0.535156</v>
+      </c>
+      <c r="T22" t="n">
+        <v>2.80859</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.434245</v>
+      </c>
+      <c r="V22" t="n">
+        <v>5.45617</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0.463542</v>
+      </c>
+      <c r="X22" t="n">
+        <v>5.45455</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0.0900783</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -8544,6 +9632,54 @@
           <t>cuts/104.5689532,1.9242490_10450_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J23" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="K23" t="n">
+        <v>15.844</v>
+      </c>
+      <c r="L23" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="M23" t="n">
+        <v>6.07593</v>
+      </c>
+      <c r="N23" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="O23" t="n">
+        <v>6.07593</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>40.3411</v>
+      </c>
+      <c r="R23" t="n">
+        <v>4.18605</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0.535156</v>
+      </c>
+      <c r="T23" t="n">
+        <v>2.80859</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0.434245</v>
+      </c>
+      <c r="V23" t="n">
+        <v>5.45617</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0.463542</v>
+      </c>
+      <c r="X23" t="n">
+        <v>5.45455</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0.0900783</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -8587,6 +9723,54 @@
           <t>cuts/104.6087912,1.5819141_10450_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J24" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="K24" t="n">
+        <v>15.844</v>
+      </c>
+      <c r="L24" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="M24" t="n">
+        <v>6.07593</v>
+      </c>
+      <c r="N24" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="O24" t="n">
+        <v>6.07593</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>40.3411</v>
+      </c>
+      <c r="R24" t="n">
+        <v>4.18605</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0.535156</v>
+      </c>
+      <c r="T24" t="n">
+        <v>2.80859</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0.434245</v>
+      </c>
+      <c r="V24" t="n">
+        <v>5.45617</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0.463542</v>
+      </c>
+      <c r="X24" t="n">
+        <v>5.45455</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0.0900783</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -8630,6 +9814,54 @@
           <t>cuts/104.4674009,1.8224165_10450_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J25" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="K25" t="n">
+        <v>15.844</v>
+      </c>
+      <c r="L25" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="M25" t="n">
+        <v>6.07593</v>
+      </c>
+      <c r="N25" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="O25" t="n">
+        <v>6.07593</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>40.3411</v>
+      </c>
+      <c r="R25" t="n">
+        <v>4.18605</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0.535156</v>
+      </c>
+      <c r="T25" t="n">
+        <v>2.80859</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0.434245</v>
+      </c>
+      <c r="V25" t="n">
+        <v>5.45617</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0.463542</v>
+      </c>
+      <c r="X25" t="n">
+        <v>5.45455</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0.0900783</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -8673,6 +9905,54 @@
           <t>cuts/104.2169155,2.0667323_10450_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J26" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="K26" t="n">
+        <v>15.844</v>
+      </c>
+      <c r="L26" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="M26" t="n">
+        <v>6.07593</v>
+      </c>
+      <c r="N26" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="O26" t="n">
+        <v>6.07593</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>40.3411</v>
+      </c>
+      <c r="R26" t="n">
+        <v>4.18605</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0.535156</v>
+      </c>
+      <c r="T26" t="n">
+        <v>2.80859</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0.434245</v>
+      </c>
+      <c r="V26" t="n">
+        <v>5.45617</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0.463542</v>
+      </c>
+      <c r="X26" t="n">
+        <v>5.45455</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0.0900783</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -8716,6 +9996,54 @@
           <t>cuts/104.3458326,1.9602448_10450_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J27" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="K27" t="n">
+        <v>15.844</v>
+      </c>
+      <c r="L27" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="M27" t="n">
+        <v>6.07593</v>
+      </c>
+      <c r="N27" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="O27" t="n">
+        <v>6.07593</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>40.3411</v>
+      </c>
+      <c r="R27" t="n">
+        <v>4.18605</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0.535156</v>
+      </c>
+      <c r="T27" t="n">
+        <v>2.80859</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0.434245</v>
+      </c>
+      <c r="V27" t="n">
+        <v>5.45617</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0.463542</v>
+      </c>
+      <c r="X27" t="n">
+        <v>5.45455</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0.0900783</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -8759,6 +10087,54 @@
           <t>cuts/104.4275534,1.6589155_10450_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J28" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="K28" t="n">
+        <v>15.844</v>
+      </c>
+      <c r="L28" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="M28" t="n">
+        <v>6.07593</v>
+      </c>
+      <c r="N28" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="O28" t="n">
+        <v>6.07593</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>40.3411</v>
+      </c>
+      <c r="R28" t="n">
+        <v>4.18605</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0.535156</v>
+      </c>
+      <c r="T28" t="n">
+        <v>2.80859</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0.434245</v>
+      </c>
+      <c r="V28" t="n">
+        <v>5.45617</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0.463542</v>
+      </c>
+      <c r="X28" t="n">
+        <v>5.45455</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0.0900783</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -8802,6 +10178,54 @@
           <t>cuts/104.3508685,1.4560785_10450_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J29" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="K29" t="n">
+        <v>15.844</v>
+      </c>
+      <c r="L29" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="M29" t="n">
+        <v>6.07593</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="O29" t="n">
+        <v>6.07593</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>40.3411</v>
+      </c>
+      <c r="R29" t="n">
+        <v>4.18605</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0.535156</v>
+      </c>
+      <c r="T29" t="n">
+        <v>2.80859</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0.434245</v>
+      </c>
+      <c r="V29" t="n">
+        <v>5.45617</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0.463542</v>
+      </c>
+      <c r="X29" t="n">
+        <v>5.45455</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>0.0900783</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -8845,6 +10269,54 @@
           <t>cuts/104.3868797,1.4644139_10450_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J30" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="K30" t="n">
+        <v>15.844</v>
+      </c>
+      <c r="L30" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="M30" t="n">
+        <v>6.07593</v>
+      </c>
+      <c r="N30" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="O30" t="n">
+        <v>6.07593</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>40.3411</v>
+      </c>
+      <c r="R30" t="n">
+        <v>4.18605</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0.535156</v>
+      </c>
+      <c r="T30" t="n">
+        <v>2.80859</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0.434245</v>
+      </c>
+      <c r="V30" t="n">
+        <v>5.45617</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0.463542</v>
+      </c>
+      <c r="X30" t="n">
+        <v>5.45455</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0.0900783</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -8888,6 +10360,54 @@
           <t>cuts/104.2955756,0.8105741_10450_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J31" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="K31" t="n">
+        <v>15.844</v>
+      </c>
+      <c r="L31" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="M31" t="n">
+        <v>6.07593</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="O31" t="n">
+        <v>6.07593</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>40.3411</v>
+      </c>
+      <c r="R31" t="n">
+        <v>4.18605</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0.535156</v>
+      </c>
+      <c r="T31" t="n">
+        <v>2.80859</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0.434245</v>
+      </c>
+      <c r="V31" t="n">
+        <v>5.45617</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0.463542</v>
+      </c>
+      <c r="X31" t="n">
+        <v>5.45455</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>0.0900783</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8931,6 +10451,54 @@
           <t>cuts/104.4812491,0.8385833_10450_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J32" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="K32" t="n">
+        <v>15.844</v>
+      </c>
+      <c r="L32" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="M32" t="n">
+        <v>6.07593</v>
+      </c>
+      <c r="N32" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="O32" t="n">
+        <v>6.07593</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>40.3411</v>
+      </c>
+      <c r="R32" t="n">
+        <v>4.18605</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0.535156</v>
+      </c>
+      <c r="T32" t="n">
+        <v>2.80859</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0.434245</v>
+      </c>
+      <c r="V32" t="n">
+        <v>5.45617</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0.463542</v>
+      </c>
+      <c r="X32" t="n">
+        <v>5.45455</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0.0900783</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8974,6 +10542,54 @@
           <t>cuts/104.1915652,0.8582291_10450_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J33" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="K33" t="n">
+        <v>15.844</v>
+      </c>
+      <c r="L33" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="M33" t="n">
+        <v>6.07593</v>
+      </c>
+      <c r="N33" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="O33" t="n">
+        <v>6.07593</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>40.3411</v>
+      </c>
+      <c r="R33" t="n">
+        <v>4.18605</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0.535156</v>
+      </c>
+      <c r="T33" t="n">
+        <v>2.80859</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0.434245</v>
+      </c>
+      <c r="V33" t="n">
+        <v>5.45617</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0.463542</v>
+      </c>
+      <c r="X33" t="n">
+        <v>5.45455</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>0.0900783</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -9017,6 +10633,54 @@
           <t>cuts/104.1885298,1.1142287_10450_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J34" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="K34" t="n">
+        <v>15.844</v>
+      </c>
+      <c r="L34" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="M34" t="n">
+        <v>6.07593</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="O34" t="n">
+        <v>6.07593</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>40.3411</v>
+      </c>
+      <c r="R34" t="n">
+        <v>4.18605</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0.535156</v>
+      </c>
+      <c r="T34" t="n">
+        <v>2.80859</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0.434245</v>
+      </c>
+      <c r="V34" t="n">
+        <v>5.45617</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0.463542</v>
+      </c>
+      <c r="X34" t="n">
+        <v>5.45455</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>0.0900783</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -9060,6 +10724,54 @@
           <t>cuts/104.1504793,1.3987231_10450_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J35" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="K35" t="n">
+        <v>15.844</v>
+      </c>
+      <c r="L35" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="M35" t="n">
+        <v>6.07593</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="O35" t="n">
+        <v>6.07593</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>40.3411</v>
+      </c>
+      <c r="R35" t="n">
+        <v>4.18605</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0.535156</v>
+      </c>
+      <c r="T35" t="n">
+        <v>2.80859</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0.434245</v>
+      </c>
+      <c r="V35" t="n">
+        <v>5.45617</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0.463542</v>
+      </c>
+      <c r="X35" t="n">
+        <v>5.45455</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>0.0900783</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -9103,6 +10815,54 @@
           <t>cuts/104.2034462,1.7720640_10450_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J36" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="K36" t="n">
+        <v>15.844</v>
+      </c>
+      <c r="L36" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="M36" t="n">
+        <v>6.07593</v>
+      </c>
+      <c r="N36" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="O36" t="n">
+        <v>6.07593</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>40.3411</v>
+      </c>
+      <c r="R36" t="n">
+        <v>4.18605</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0.535156</v>
+      </c>
+      <c r="T36" t="n">
+        <v>2.80859</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0.434245</v>
+      </c>
+      <c r="V36" t="n">
+        <v>5.45617</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0.463542</v>
+      </c>
+      <c r="X36" t="n">
+        <v>5.45455</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>0.0900783</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -9146,6 +10906,54 @@
           <t>cuts/104.2295875,2.0857339_10450_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J37" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="K37" t="n">
+        <v>15.844</v>
+      </c>
+      <c r="L37" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="M37" t="n">
+        <v>6.07593</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="O37" t="n">
+        <v>6.07593</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>40.3411</v>
+      </c>
+      <c r="R37" t="n">
+        <v>4.18605</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0.535156</v>
+      </c>
+      <c r="T37" t="n">
+        <v>2.80859</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0.434245</v>
+      </c>
+      <c r="V37" t="n">
+        <v>5.45617</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0.463542</v>
+      </c>
+      <c r="X37" t="n">
+        <v>5.45455</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>0.0900783</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -9189,6 +10997,54 @@
           <t>cuts/104.0218138,2.0010329_10450_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J38" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="K38" t="n">
+        <v>15.844</v>
+      </c>
+      <c r="L38" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="M38" t="n">
+        <v>6.07593</v>
+      </c>
+      <c r="N38" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="O38" t="n">
+        <v>6.07593</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>40.3411</v>
+      </c>
+      <c r="R38" t="n">
+        <v>4.18605</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0.535156</v>
+      </c>
+      <c r="T38" t="n">
+        <v>2.80859</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0.434245</v>
+      </c>
+      <c r="V38" t="n">
+        <v>5.45617</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0.463542</v>
+      </c>
+      <c r="X38" t="n">
+        <v>5.45455</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>0.0900783</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -9232,6 +11088,54 @@
           <t>cuts/103.9745529,0.8565224_10450_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J39" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="K39" t="n">
+        <v>15.844</v>
+      </c>
+      <c r="L39" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="M39" t="n">
+        <v>6.07593</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="O39" t="n">
+        <v>6.07593</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>40.3411</v>
+      </c>
+      <c r="R39" t="n">
+        <v>4.18605</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0.535156</v>
+      </c>
+      <c r="T39" t="n">
+        <v>2.80859</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0.434245</v>
+      </c>
+      <c r="V39" t="n">
+        <v>5.45617</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0.463542</v>
+      </c>
+      <c r="X39" t="n">
+        <v>5.45455</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>0.0900783</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -9275,6 +11179,54 @@
           <t>cuts/105.0081044,1.5616931_10450_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J40" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="K40" t="n">
+        <v>15.844</v>
+      </c>
+      <c r="L40" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="M40" t="n">
+        <v>6.07593</v>
+      </c>
+      <c r="N40" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="O40" t="n">
+        <v>6.07593</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>40.3411</v>
+      </c>
+      <c r="R40" t="n">
+        <v>4.18605</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0.535156</v>
+      </c>
+      <c r="T40" t="n">
+        <v>2.80859</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0.434245</v>
+      </c>
+      <c r="V40" t="n">
+        <v>5.45617</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0.463542</v>
+      </c>
+      <c r="X40" t="n">
+        <v>5.45455</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>0.0900783</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9318,6 +11270,54 @@
           <t>cuts/104.9910173,1.1888635_10450_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J41" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="K41" t="n">
+        <v>15.844</v>
+      </c>
+      <c r="L41" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="M41" t="n">
+        <v>6.07593</v>
+      </c>
+      <c r="N41" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="O41" t="n">
+        <v>6.07593</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>40.3411</v>
+      </c>
+      <c r="R41" t="n">
+        <v>4.18605</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0.535156</v>
+      </c>
+      <c r="T41" t="n">
+        <v>2.80859</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0.434245</v>
+      </c>
+      <c r="V41" t="n">
+        <v>5.45617</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0.463542</v>
+      </c>
+      <c r="X41" t="n">
+        <v>5.45455</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>0.0900783</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9361,6 +11361,54 @@
           <t>cuts/104.8345346,1.5230587_10450_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J42" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="K42" t="n">
+        <v>15.844</v>
+      </c>
+      <c r="L42" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="M42" t="n">
+        <v>6.07593</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="O42" t="n">
+        <v>6.07593</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>40.3411</v>
+      </c>
+      <c r="R42" t="n">
+        <v>4.18605</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0.535156</v>
+      </c>
+      <c r="T42" t="n">
+        <v>2.80859</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0.434245</v>
+      </c>
+      <c r="V42" t="n">
+        <v>5.45617</v>
+      </c>
+      <c r="W42" t="n">
+        <v>0.463542</v>
+      </c>
+      <c r="X42" t="n">
+        <v>5.45455</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>0.0900783</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9404,6 +11452,54 @@
           <t>cuts/104.9237340,1.5302104_10450_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J43" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="K43" t="n">
+        <v>15.844</v>
+      </c>
+      <c r="L43" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="M43" t="n">
+        <v>6.07593</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="O43" t="n">
+        <v>6.07593</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>40.3411</v>
+      </c>
+      <c r="R43" t="n">
+        <v>4.18605</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0.535156</v>
+      </c>
+      <c r="T43" t="n">
+        <v>2.80859</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0.434245</v>
+      </c>
+      <c r="V43" t="n">
+        <v>5.45617</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0.463542</v>
+      </c>
+      <c r="X43" t="n">
+        <v>5.45455</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>0.0900783</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9447,6 +11543,54 @@
           <t>cuts/104.8010448,1.6888967_10450_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J44" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="K44" t="n">
+        <v>15.844</v>
+      </c>
+      <c r="L44" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="M44" t="n">
+        <v>6.07593</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="O44" t="n">
+        <v>6.07593</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>40.3411</v>
+      </c>
+      <c r="R44" t="n">
+        <v>4.18605</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0.535156</v>
+      </c>
+      <c r="T44" t="n">
+        <v>2.80859</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0.434245</v>
+      </c>
+      <c r="V44" t="n">
+        <v>5.45617</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0.463542</v>
+      </c>
+      <c r="X44" t="n">
+        <v>5.45455</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>0.0900783</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -9490,6 +11634,54 @@
           <t>cuts/104.9501402,1.0110386_10450_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J45" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="K45" t="n">
+        <v>15.844</v>
+      </c>
+      <c r="L45" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="M45" t="n">
+        <v>6.07593</v>
+      </c>
+      <c r="N45" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="O45" t="n">
+        <v>6.07593</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>40.3411</v>
+      </c>
+      <c r="R45" t="n">
+        <v>4.18605</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0.535156</v>
+      </c>
+      <c r="T45" t="n">
+        <v>2.80859</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0.434245</v>
+      </c>
+      <c r="V45" t="n">
+        <v>5.45617</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0.463542</v>
+      </c>
+      <c r="X45" t="n">
+        <v>5.45455</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>0.0900783</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -9533,6 +11725,54 @@
           <t>cuts/104.7592917,1.0889019_10450_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J46" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="K46" t="n">
+        <v>15.844</v>
+      </c>
+      <c r="L46" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="M46" t="n">
+        <v>6.07593</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="O46" t="n">
+        <v>6.07593</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>40.3411</v>
+      </c>
+      <c r="R46" t="n">
+        <v>4.18605</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0.535156</v>
+      </c>
+      <c r="T46" t="n">
+        <v>2.80859</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0.434245</v>
+      </c>
+      <c r="V46" t="n">
+        <v>5.45617</v>
+      </c>
+      <c r="W46" t="n">
+        <v>0.463542</v>
+      </c>
+      <c r="X46" t="n">
+        <v>5.45455</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>0.0900783</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -9576,6 +11816,54 @@
           <t>cuts/104.7788009,1.1385662_10450_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J47" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="K47" t="n">
+        <v>15.844</v>
+      </c>
+      <c r="L47" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="M47" t="n">
+        <v>6.07593</v>
+      </c>
+      <c r="N47" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="O47" t="n">
+        <v>6.07593</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>40.3411</v>
+      </c>
+      <c r="R47" t="n">
+        <v>4.18605</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0.535156</v>
+      </c>
+      <c r="T47" t="n">
+        <v>2.80859</v>
+      </c>
+      <c r="U47" t="n">
+        <v>0.434245</v>
+      </c>
+      <c r="V47" t="n">
+        <v>5.45617</v>
+      </c>
+      <c r="W47" t="n">
+        <v>0.463542</v>
+      </c>
+      <c r="X47" t="n">
+        <v>5.45455</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>0.0900783</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -9619,6 +11907,54 @@
           <t>cuts/104.6986475,1.4562413_10450_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J48" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="K48" t="n">
+        <v>15.844</v>
+      </c>
+      <c r="L48" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="M48" t="n">
+        <v>6.07593</v>
+      </c>
+      <c r="N48" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="O48" t="n">
+        <v>6.07593</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>40.3411</v>
+      </c>
+      <c r="R48" t="n">
+        <v>4.18605</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0.535156</v>
+      </c>
+      <c r="T48" t="n">
+        <v>2.80859</v>
+      </c>
+      <c r="U48" t="n">
+        <v>0.434245</v>
+      </c>
+      <c r="V48" t="n">
+        <v>5.45617</v>
+      </c>
+      <c r="W48" t="n">
+        <v>0.463542</v>
+      </c>
+      <c r="X48" t="n">
+        <v>5.45455</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>0.0900783</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -9662,6 +11998,54 @@
           <t>cuts/104.3500024,1.9460784_10450_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J49" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="K49" t="n">
+        <v>15.844</v>
+      </c>
+      <c r="L49" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="M49" t="n">
+        <v>6.07593</v>
+      </c>
+      <c r="N49" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="O49" t="n">
+        <v>6.07593</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>40.3411</v>
+      </c>
+      <c r="R49" t="n">
+        <v>4.18605</v>
+      </c>
+      <c r="S49" t="n">
+        <v>0.535156</v>
+      </c>
+      <c r="T49" t="n">
+        <v>2.80859</v>
+      </c>
+      <c r="U49" t="n">
+        <v>0.434245</v>
+      </c>
+      <c r="V49" t="n">
+        <v>5.45617</v>
+      </c>
+      <c r="W49" t="n">
+        <v>0.463542</v>
+      </c>
+      <c r="X49" t="n">
+        <v>5.45455</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>0.0900783</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -9705,6 +12089,54 @@
           <t>cuts/104.2124645,1.6608985_10450_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J50" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="K50" t="n">
+        <v>15.844</v>
+      </c>
+      <c r="L50" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="M50" t="n">
+        <v>6.07593</v>
+      </c>
+      <c r="N50" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="O50" t="n">
+        <v>6.07593</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>40.3411</v>
+      </c>
+      <c r="R50" t="n">
+        <v>4.18605</v>
+      </c>
+      <c r="S50" t="n">
+        <v>0.535156</v>
+      </c>
+      <c r="T50" t="n">
+        <v>2.80859</v>
+      </c>
+      <c r="U50" t="n">
+        <v>0.434245</v>
+      </c>
+      <c r="V50" t="n">
+        <v>5.45617</v>
+      </c>
+      <c r="W50" t="n">
+        <v>0.463542</v>
+      </c>
+      <c r="X50" t="n">
+        <v>5.45455</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>0.0900783</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -9748,6 +12180,54 @@
           <t>cuts/104.2784910,1.6692392_10450_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J51" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="K51" t="n">
+        <v>15.844</v>
+      </c>
+      <c r="L51" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="M51" t="n">
+        <v>6.07593</v>
+      </c>
+      <c r="N51" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="O51" t="n">
+        <v>6.07593</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>40.3411</v>
+      </c>
+      <c r="R51" t="n">
+        <v>4.18605</v>
+      </c>
+      <c r="S51" t="n">
+        <v>0.535156</v>
+      </c>
+      <c r="T51" t="n">
+        <v>2.80859</v>
+      </c>
+      <c r="U51" t="n">
+        <v>0.434245</v>
+      </c>
+      <c r="V51" t="n">
+        <v>5.45617</v>
+      </c>
+      <c r="W51" t="n">
+        <v>0.463542</v>
+      </c>
+      <c r="X51" t="n">
+        <v>5.45455</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>0.0900783</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -9791,6 +12271,54 @@
           <t>cuts/104.1470032,1.2387225_10450_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J52" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="K52" t="n">
+        <v>15.844</v>
+      </c>
+      <c r="L52" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="M52" t="n">
+        <v>6.07593</v>
+      </c>
+      <c r="N52" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="O52" t="n">
+        <v>6.07593</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>40.3411</v>
+      </c>
+      <c r="R52" t="n">
+        <v>4.18605</v>
+      </c>
+      <c r="S52" t="n">
+        <v>0.535156</v>
+      </c>
+      <c r="T52" t="n">
+        <v>2.80859</v>
+      </c>
+      <c r="U52" t="n">
+        <v>0.434245</v>
+      </c>
+      <c r="V52" t="n">
+        <v>5.45617</v>
+      </c>
+      <c r="W52" t="n">
+        <v>0.463542</v>
+      </c>
+      <c r="X52" t="n">
+        <v>5.45455</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>0.0900783</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -9834,6 +12362,54 @@
           <t>cuts/104.0075019,1.0991965_10450_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J53" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="K53" t="n">
+        <v>15.844</v>
+      </c>
+      <c r="L53" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="M53" t="n">
+        <v>6.07593</v>
+      </c>
+      <c r="N53" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="O53" t="n">
+        <v>6.07593</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>40.3411</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4.18605</v>
+      </c>
+      <c r="S53" t="n">
+        <v>0.535156</v>
+      </c>
+      <c r="T53" t="n">
+        <v>2.80859</v>
+      </c>
+      <c r="U53" t="n">
+        <v>0.434245</v>
+      </c>
+      <c r="V53" t="n">
+        <v>5.45617</v>
+      </c>
+      <c r="W53" t="n">
+        <v>0.463542</v>
+      </c>
+      <c r="X53" t="n">
+        <v>5.45455</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>0.0900783</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -9877,6 +12453,54 @@
           <t>cuts/104.1965305,1.1192297_10450_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J54" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="K54" t="n">
+        <v>15.844</v>
+      </c>
+      <c r="L54" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="M54" t="n">
+        <v>6.07593</v>
+      </c>
+      <c r="N54" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="O54" t="n">
+        <v>6.07593</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>40.3411</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4.18605</v>
+      </c>
+      <c r="S54" t="n">
+        <v>0.535156</v>
+      </c>
+      <c r="T54" t="n">
+        <v>2.80859</v>
+      </c>
+      <c r="U54" t="n">
+        <v>0.434245</v>
+      </c>
+      <c r="V54" t="n">
+        <v>5.45617</v>
+      </c>
+      <c r="W54" t="n">
+        <v>0.463542</v>
+      </c>
+      <c r="X54" t="n">
+        <v>5.45455</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>0.0900783</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -9920,6 +12544,54 @@
           <t>cuts/103.9944671,1.2456936_10450_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J55" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="K55" t="n">
+        <v>15.844</v>
+      </c>
+      <c r="L55" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="M55" t="n">
+        <v>6.07593</v>
+      </c>
+      <c r="N55" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="O55" t="n">
+        <v>6.07593</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>40.3411</v>
+      </c>
+      <c r="R55" t="n">
+        <v>4.18605</v>
+      </c>
+      <c r="S55" t="n">
+        <v>0.535156</v>
+      </c>
+      <c r="T55" t="n">
+        <v>2.80859</v>
+      </c>
+      <c r="U55" t="n">
+        <v>0.434245</v>
+      </c>
+      <c r="V55" t="n">
+        <v>5.45617</v>
+      </c>
+      <c r="W55" t="n">
+        <v>0.463542</v>
+      </c>
+      <c r="X55" t="n">
+        <v>5.45455</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>0.0900783</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -9963,6 +12635,54 @@
           <t>cuts/104.0943027,1.3608804_10450_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J56" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="K56" t="n">
+        <v>15.844</v>
+      </c>
+      <c r="L56" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="M56" t="n">
+        <v>6.07593</v>
+      </c>
+      <c r="N56" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="O56" t="n">
+        <v>6.07593</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>40.3411</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4.18605</v>
+      </c>
+      <c r="S56" t="n">
+        <v>0.535156</v>
+      </c>
+      <c r="T56" t="n">
+        <v>2.80859</v>
+      </c>
+      <c r="U56" t="n">
+        <v>0.434245</v>
+      </c>
+      <c r="V56" t="n">
+        <v>5.45617</v>
+      </c>
+      <c r="W56" t="n">
+        <v>0.463542</v>
+      </c>
+      <c r="X56" t="n">
+        <v>5.45455</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>0.0900783</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -10006,6 +12726,54 @@
           <t>cuts/104.1032257,1.8147153_10450_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J57" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="K57" t="n">
+        <v>15.844</v>
+      </c>
+      <c r="L57" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="M57" t="n">
+        <v>6.07593</v>
+      </c>
+      <c r="N57" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="O57" t="n">
+        <v>6.07593</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>40.3411</v>
+      </c>
+      <c r="R57" t="n">
+        <v>4.18605</v>
+      </c>
+      <c r="S57" t="n">
+        <v>0.535156</v>
+      </c>
+      <c r="T57" t="n">
+        <v>2.80859</v>
+      </c>
+      <c r="U57" t="n">
+        <v>0.434245</v>
+      </c>
+      <c r="V57" t="n">
+        <v>5.45617</v>
+      </c>
+      <c r="W57" t="n">
+        <v>0.463542</v>
+      </c>
+      <c r="X57" t="n">
+        <v>5.45455</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>0.0900783</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -10048,6 +12816,54 @@
         <is>
           <t>cuts/104.4409144,0.8107493_10450_0145_Azul-3.5micras.jpeg</t>
         </is>
+      </c>
+      <c r="J58" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="K58" t="n">
+        <v>15.844</v>
+      </c>
+      <c r="L58" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="M58" t="n">
+        <v>6.07593</v>
+      </c>
+      <c r="N58" t="n">
+        <v>-0.24494</v>
+      </c>
+      <c r="O58" t="n">
+        <v>6.07593</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>40.3411</v>
+      </c>
+      <c r="R58" t="n">
+        <v>4.18605</v>
+      </c>
+      <c r="S58" t="n">
+        <v>0.535156</v>
+      </c>
+      <c r="T58" t="n">
+        <v>2.80859</v>
+      </c>
+      <c r="U58" t="n">
+        <v>0.434245</v>
+      </c>
+      <c r="V58" t="n">
+        <v>5.45617</v>
+      </c>
+      <c r="W58" t="n">
+        <v>0.463542</v>
+      </c>
+      <c r="X58" t="n">
+        <v>5.45455</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>0.0900783</v>
       </c>
     </row>
   </sheetData>
